--- a/Running projects/Gul Ahmed Energy Limited/PO/005- Purchase order- for copper pipe fakhri.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/PO/005- Purchase order- for copper pipe fakhri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Gul Ahmed Energy Limited\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE0560-D70A-47DC-A5D5-F1FC58F33EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED65C2A-615E-4BFC-951C-565B532DBE83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$23:$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>S No.</t>
   </si>
@@ -62,42 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">PURCHASE ORDER </t>
-  </si>
-  <si>
-    <t>M/S ST Brothers</t>
-  </si>
-  <si>
-    <t>PO # 13461</t>
-  </si>
-  <si>
-    <t>Supply of Copper pipe  for the project Gul Ahmed Office Shahra e Faisal Karachi</t>
-  </si>
-  <si>
-    <t>Brand: Mueller USA</t>
-  </si>
-  <si>
-    <t>Rft</t>
-  </si>
-  <si>
-    <t>Supply of Copper L-Type Mueller USA  3/8</t>
-  </si>
-  <si>
-    <t>Supply of Copper L-Type Mueller USA  1/2</t>
-  </si>
-  <si>
-    <t>Supply of Copper L-Type Mueller USA  5/8</t>
-  </si>
-  <si>
-    <t>Supply of Copper L-Type Mueller USA  3/4</t>
-  </si>
-  <si>
-    <t>Supply of Copper L-Type Mueller USA  7/8</t>
-  </si>
-  <si>
-    <t>Supply of Copper L-Type Mueller USA  1-1/8</t>
-  </si>
-  <si>
-    <t>Supply of Copper L-Type Mueller USA  1-3/8</t>
   </si>
   <si>
     <r>
@@ -112,8 +76,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>IK Associates</t>
+      <t>Pioneer Services</t>
     </r>
+  </si>
+  <si>
+    <t>M/S Fakhri Brothers</t>
+  </si>
+  <si>
+    <t>Supply of Fire Extinguishers for the project Gul Ahmed Office Shahra e Faisal Karachi</t>
+  </si>
+  <si>
+    <t>PO # 1341</t>
+  </si>
+  <si>
+    <t>Supply of of ceiling mounted Dry powder Fire Extinghuishers system.</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -317,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,17 +359,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -445,16 +413,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>177587</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1655038</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -484,8 +452,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9115426" y="2409825"/>
-          <a:ext cx="2444536" cy="990600"/>
+          <a:off x="0" y="85725"/>
+          <a:ext cx="1997938" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -521,13 +489,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>8041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -650,13 +618,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>150247</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>111122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -722,16 +690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1243</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>166895</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>363193</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -752,7 +720,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4019550" y="8420100"/>
+          <a:off x="0" y="6677025"/>
           <a:ext cx="706093" cy="643145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -764,23 +732,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>505825</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>39290</xdr:rowOff>
+      <xdr:colOff>514555</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>581203</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67042B7E-59C2-ED0D-5B3B-0DD058BA0C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73B8FC3-0217-4CCB-844E-4D1BDA98EFE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -796,8 +764,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772400" y="1809750"/>
-          <a:ext cx="7163800" cy="8526065"/>
+          <a:off x="13477875" y="3800475"/>
+          <a:ext cx="1467055" cy="1276528"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,23 +776,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1181305</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133528</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>191508</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73B8FC3-0217-4CCB-844E-4D1BDA98EFE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229A774E-9A5F-429B-B4A7-8BFDE140057C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -840,8 +808,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="57150"/>
-          <a:ext cx="1467055" cy="1276528"/>
+          <a:off x="9229725" y="266700"/>
+          <a:ext cx="7220958" cy="1838582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:I36"/>
+  <dimension ref="A10:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1138,12 +1106,12 @@
   <sheetData>
     <row r="10" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>11</v>
+      <c r="A11" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="F11" s="10">
-        <v>45511</v>
+        <v>45804</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,28 +1121,28 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
@@ -1185,28 +1153,28 @@
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
@@ -1230,242 +1198,88 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="26"/>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>1</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="6">
-        <v>160</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="12">
-        <v>363</v>
-      </c>
-      <c r="F25" s="22">
-        <f t="shared" ref="F25:F31" si="0">E25*C25</f>
-        <v>58080</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>2</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="6">
-        <v>120</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="12">
-        <v>564</v>
-      </c>
-      <c r="F26" s="22">
-        <f t="shared" si="0"/>
-        <v>67680</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>3</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="6">
-        <v>160</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="12">
-        <v>799</v>
-      </c>
-      <c r="F27" s="22">
-        <f t="shared" si="0"/>
-        <v>127840</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="E24" s="12">
+        <v>18000</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" ref="F24" si="0">E24*C24</f>
+        <v>18000</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="6">
-        <v>60</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1013</v>
-      </c>
-      <c r="F28" s="22">
-        <f t="shared" si="0"/>
-        <v>60780</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="16">
+        <f>SUM(F24:F24)</f>
+        <v>18000</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="17">
+        <f>F25*8%</f>
+        <v>1440</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="6">
-        <v>40</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="12">
-        <v>1272</v>
-      </c>
-      <c r="F29" s="22">
-        <f t="shared" si="0"/>
-        <v>50880</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>6</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="6">
-        <v>60</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="12">
-        <v>1832</v>
-      </c>
-      <c r="F30" s="22">
-        <f t="shared" si="0"/>
-        <v>109920</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>7</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="6">
-        <v>40</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="12">
-        <v>2470</v>
-      </c>
-      <c r="F31" s="22">
-        <f t="shared" si="0"/>
-        <v>98800</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="16">
-        <f>SUM(F25:F31)</f>
-        <v>573980</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="17">
-        <f>F32*8%</f>
-        <v>45918.400000000001</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="18">
-        <f>F32-F33</f>
-        <v>528061.6</v>
-      </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="18">
+        <f>F25-F26</f>
+        <v>16560</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A15:F15"/>
   </mergeCells>
